--- a/docs/input_template_rface2.xlsx
+++ b/docs/input_template_rface2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A18E6-595A-694D-BB23-1E5930AD3DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD8EBF-4CD8-2547-AB51-DC5AF759FB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="2180" windowWidth="30020" windowHeight="24340" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="35160" yWindow="3220" windowWidth="30020" windowHeight="24340" activeTab="7" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1897,6 +1897,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>174.7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1906,6 +1912,12 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4398,7 +4410,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02E090B-D957-7046-AD33-44E170F709C1}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
@@ -4612,7 +4624,7 @@
   <dimension ref="A2:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A5" sqref="A5:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5130,16 +5142,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="J20:K20"/>
     <mergeCell ref="M20:N20"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="M2:N2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6110,8 +6122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976BB56-7732-404C-B58A-55DA7F8052B3}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6187,9 +6199,15 @@
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="B4" s="3">
+        <v>150</v>
+      </c>
+      <c r="C4" s="3">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3">
+        <v>3000</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -6201,9 +6219,15 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="B5" s="3">
+        <v>174.7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3000</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>

--- a/docs/input_template_rface2.xlsx
+++ b/docs/input_template_rface2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AD8EBF-4CD8-2547-AB51-DC5AF759FB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8428707-84C6-C44C-B48A-5881CB6CC31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35160" yWindow="3220" windowWidth="30020" windowHeight="24340" activeTab="7" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
@@ -6123,7 +6123,7 @@
   <dimension ref="B2:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/docs/input_template_rface2.xlsx
+++ b/docs/input_template_rface2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/cursor_projects/slopetools/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/CursorProjects/slopetools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8428707-84C6-C44C-B48A-5881CB6CC31A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD50F2B-F04E-0842-93E5-76D8D219F375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="3220" windowWidth="30020" windowHeight="24340" activeTab="7" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
+    <workbookView xWindow="21860" yWindow="1420" windowWidth="30020" windowHeight="24340" activeTab="1" xr2:uid="{BA54C293-CE08-6E4C-9212-B3317DAA148E}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -3272,6 +3272,67 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="32"/>
+          <c:order val="32"/>
+          <c:tx>
+            <c:v>Piezometric Line #2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>piezo!$D$4:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>piezo!$E$4:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-293D-E340-A7BB-5ECEC3BDAF11}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4608,8 +4669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CEDAD3-D805-AE4D-9F0D-9E80BF51FF21}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5142,16 +5203,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6122,7 +6183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7976BB56-7732-404C-B58A-55DA7F8052B3}">
   <dimension ref="B2:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
